--- a/pcb/v1-0/BOM.xlsx
+++ b/pcb/v1-0/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\NamePlate\pcb\v1-0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F2A293A-77E1-4D45-9272-E939F956496A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142DAE56-D0ED-47A2-8D5C-9718C1BAA79A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="6885" windowWidth="14100" windowHeight="8580" xr2:uid="{2996FECF-B69C-451C-8321-F32B1B9F981C}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="14100" windowHeight="8580" xr2:uid="{2996FECF-B69C-451C-8321-F32B1B9F981C}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
   <si>
     <t>Value</t>
   </si>
@@ -247,6 +247,24 @@
   </si>
   <si>
     <t>Extended Price per Unit</t>
+  </si>
+  <si>
+    <t>Construction paper</t>
+  </si>
+  <si>
+    <t>https://www.cvs.com/shop/content/construction-paper</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>shipping</t>
+  </si>
+  <si>
+    <t>OshStencil 3 mil Polyimide, 1.25" boarder</t>
+  </si>
+  <si>
+    <t>12.410 * 4.062"</t>
   </si>
 </sst>
 </file>
@@ -609,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9212E185-4D38-4C7C-B965-2E6424301D55}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32:F33"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,7 +1104,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>62</v>
       </c>
@@ -1099,13 +1117,73 @@
         <v>2.7559999999999998</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36">
+        <v>6.29</v>
+      </c>
+      <c r="G36">
+        <f>F36/10</f>
+        <v>0.629</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37">
+        <f>F36*0.095</f>
+        <v>0.59755000000000003</v>
+      </c>
+      <c r="G37">
+        <f>F37/10</f>
+        <v>5.9755000000000003E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39">
+        <v>22.4</v>
+      </c>
+      <c r="G39">
+        <f>F39/10</f>
+        <v>2.2399999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40">
+        <v>2.95</v>
+      </c>
+      <c r="G40">
+        <f>F40/10</f>
+        <v>0.29500000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
         <v>68</v>
       </c>
-      <c r="G38">
-        <f>SUM(G2:G37)</f>
-        <v>23.4864</v>
+      <c r="G44">
+        <f>SUM(G2:G42)</f>
+        <v>26.710155</v>
       </c>
     </row>
   </sheetData>
@@ -1125,8 +1203,9 @@
     <hyperlink ref="H21" r:id="rId13" xr:uid="{DF04D2D9-03D1-4943-BB1E-A8B76329BA58}"/>
     <hyperlink ref="H27" r:id="rId14" xr:uid="{BDB1E102-0F9D-49D0-8E29-7070500C5CC5}"/>
     <hyperlink ref="H32" r:id="rId15" xr:uid="{DD737DBC-81BE-4AD8-84E3-84E3B02D100C}"/>
+    <hyperlink ref="H36" r:id="rId16" xr:uid="{F242623F-98A3-4AED-A298-61C9113140D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/pcb/v1-0/BOM.xlsx
+++ b/pcb/v1-0/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\NamePlate\pcb\v1-0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142DAE56-D0ED-47A2-8D5C-9718C1BAA79A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25A8529-52F9-4FB7-B51F-2F1103454032}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="14100" windowHeight="8580" xr2:uid="{2996FECF-B69C-451C-8321-F32B1B9F981C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2996FECF-B69C-451C-8321-F32B1B9F981C}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
   <si>
     <t>Value</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>12.410 * 4.062"</t>
+  </si>
+  <si>
+    <t>applicagble tax and shipping will be added?</t>
   </si>
 </sst>
 </file>
@@ -629,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9212E185-4D38-4C7C-B965-2E6424301D55}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,22 +1023,23 @@
       <c r="E21">
         <v>2</v>
       </c>
-      <c r="G21" t="s">
-        <v>56</v>
+      <c r="F21">
+        <v>9.84</v>
+      </c>
+      <c r="G21">
+        <f>F21*2/25</f>
+        <v>0.78720000000000001</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G22">
-        <f>9.84/25*2</f>
-        <v>0.78720000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
+      <c r="D22" t="s">
         <v>62</v>
+      </c>
+      <c r="G22" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.25">
